--- a/biology/Botanique/Exsudoporus_permagnificus/Exsudoporus_permagnificus.xlsx
+++ b/biology/Botanique/Exsudoporus_permagnificus/Exsudoporus_permagnificus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Bolet magnifique
 Exsudoporus permagnificus, le Bolet magnifique, est une espèce rare de champignon (Fungi) basidiomycète du genre Exsudoporus dans la famille des Boletaceae. Ses pores ont la particularité d'exsuder un liquide jaunâtre.
@@ -512,18 +524,12 @@
           <t>Taxonomie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom correct complet (avec auteur) de ce taxon est Exsudoporus permagnificus (Pöder) Vizzini, Simonini &amp; Gelardi, 2014[1].
-L'espèce a été initialement classée dans le genre Boletus sous le basionyme Boletus permagnificus Pöder, 1981[1].
-Synonymes
-Exsudoporus permagnificus a pour synonymes[1] :
-Boletus permagnificus Pöder, 1981
-Suillellus permagnificus (Pöder) Blanco-Dios, 2015
-Phylogénie
-Décrit en 1981, cette espèce a d'abord été placée dans le genre Boletus. À la suite d'études moléculaires définissant un nouveau cadre phylogénétique pour les Boletaceae, l'espèce a été transférée en 2014 dans le nouveau genre Exsudoporus, dont elle est l'espèce type.
-Étymologie
-L'étymologie du genre Exsudoporus fait référence au fait que les pores des espèces de ce genre (porus) exsudent (exsudo) des gouttes jaunâtres. L'épithète spécifique fait quant à elle référence aux couleurs "magnifiques" de ce bolet.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom correct complet (avec auteur) de ce taxon est Exsudoporus permagnificus (Pöder) Vizzini, Simonini &amp; Gelardi, 2014.
+L'espèce a été initialement classée dans le genre Boletus sous le basionyme Boletus permagnificus Pöder, 1981.
 </t>
         </is>
       </c>
@@ -549,20 +555,204 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
+          <t>Taxonomie</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Synonymes</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Exsudoporus permagnificus a pour synonymes :
+Boletus permagnificus Pöder, 1981
+Suillellus permagnificus (Pöder) Blanco-Dios, 2015</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Exsudoporus_permagnificus</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Exsudoporus_permagnificus</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Taxonomie</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Phylogénie</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Décrit en 1981, cette espèce a d'abord été placée dans le genre Boletus. À la suite d'études moléculaires définissant un nouveau cadre phylogénétique pour les Boletaceae, l'espèce a été transférée en 2014 dans le nouveau genre Exsudoporus, dont elle est l'espèce type.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Exsudoporus_permagnificus</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Exsudoporus_permagnificus</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Taxonomie</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Étymologie</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'étymologie du genre Exsudoporus fait référence au fait que les pores des espèces de ce genre (porus) exsudent (exsudo) des gouttes jaunâtres. L'épithète spécifique fait quant à elle référence aux couleurs "magnifiques" de ce bolet.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Exsudoporus_permagnificus</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Exsudoporus_permagnificus</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
           <t>Description du sporophore</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">Les bolets sont des champignons dont l'hyménophore, constitué de tubes et terminés par des pores, se sépare facilement de la chair du chapeau. Ce chapeau d'abord rond, recouvert d'une cuticule, devient convexe à mesure qu’il vieillit. Ils ont un pied (stipe) central assez épais et une chair compacte. Les caractéristiques de Exsudoporus permagnificus, le Bolet magnifique, sont les suivantes :
-Son chapeau mesure jusqu'à 8 cm de diamètre, viscidule, lisse ou subfeutré, de couleur rouge sang écarlate saturé, puis terni de cuivré, de brun rouge ou d'ochracé, bleuissant au toucher[2].
-L'hyménophore présente des petits pores rouge sanguin, plus oranges vers le bord, bleuissants[2]. Ils exsudent un liquide jaunâtre, du moins à l'état jeune[3].
-Son stipe mesure jusqu'à 6 × 3 cm, de forme subradicant et orné d'un réseau vif dense sur fond jaune d'or, devenant bleu noir au toucher[2].
-La chair est jaunâtre, marbrée, bleuissant à la coupe. La saveur est douce à acide[3] et l'odeur est fruitée[2].
-Réactions chimiques
-Pas de réaction au réactif de Melzter[3].
-Caractéristiques microscopiques
-Ses spores mesurent 13 à 16 μm x 5.5 à 6.5 μm[3].
+Son chapeau mesure jusqu'à 8 cm de diamètre, viscidule, lisse ou subfeutré, de couleur rouge sang écarlate saturé, puis terni de cuivré, de brun rouge ou d'ochracé, bleuissant au toucher.
+L'hyménophore présente des petits pores rouge sanguin, plus oranges vers le bord, bleuissants. Ils exsudent un liquide jaunâtre, du moins à l'état jeune.
+Son stipe mesure jusqu'à 6 × 3 cm, de forme subradicant et orné d'un réseau vif dense sur fond jaune d'or, devenant bleu noir au toucher.
+La chair est jaunâtre, marbrée, bleuissant à la coupe. La saveur est douce à acide et l'odeur est fruitée.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Exsudoporus_permagnificus</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Exsudoporus_permagnificus</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Description du sporophore</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Réactions chimiques</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Pas de réaction au réactif de Melzter.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Exsudoporus_permagnificus</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Exsudoporus_permagnificus</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Description du sporophore</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Caractéristiques microscopiques</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ses spores mesurent 13 à 16 μm x 5.5 à 6.5 μm.
 </t>
         </is>
       </c>
